--- a/data/RWC_2023_fixtures.xlsx
+++ b/data/RWC_2023_fixtures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter Meihuizen\Desktop\Masters\1st Semester\Data Science\World Cup Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{364BA7DB-9F29-4BBF-B1BC-08EDB3DEE489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2D6356-8102-420D-A469-D6F9C3397598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12945" yWindow="1200" windowWidth="8580" windowHeight="9765" xr2:uid="{E2608174-6BE4-4BD0-9AC4-83CD691DCA8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2608174-6BE4-4BD0-9AC4-83CD691DCA8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>away_team</t>
   </si>
   <si>
-    <t>nuetral</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Winner SF2</t>
+  </si>
+  <si>
+    <t>neutral</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -496,10 +496,10 @@
         <v>45177</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -510,10 +510,10 @@
         <v>45178</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -524,10 +524,10 @@
         <v>45179</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -538,10 +538,10 @@
         <v>45192</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>45193</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -566,10 +566,10 @@
         <v>45198</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -580,10 +580,10 @@
         <v>45205</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -594,10 +594,10 @@
         <v>45206</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -608,10 +608,10 @@
         <v>45213</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -622,13 +622,13 @@
         <v>45213</v>
       </c>
       <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>45214</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -650,13 +650,13 @@
         <v>45214</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
         <v>45219</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +678,13 @@
         <v>45220</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +692,13 @@
         <v>45227</v>
       </c>
       <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
